--- a/Improgress/2. Artifact and Deliverable/Test case/K22T1_TeamBDS_ TC_XemDSnhânsự.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/K22T1_TeamBDS_ TC_XemDSnhânsự.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B899BE-9A91-4E9A-8E86-5C0818B6C46C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7B5672-0F92-412F-A106-468899097927}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
   </bookViews>
@@ -1109,6 +1109,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1133,27 +1154,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1214,13 +1214,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1229,49 +1235,43 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1613,31 +1613,31 @@
   <sheetData>
     <row r="1" spans="2:5" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
     </row>
     <row r="3" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="53"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="60"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
@@ -1710,21 +1710,21 @@
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="63"/>
     </row>
     <row r="13" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="53"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
     </row>
     <row r="15" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
@@ -1733,54 +1733,54 @@
       <c r="C15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="61" t="s">
+      <c r="D15" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="62"/>
+      <c r="E15" s="54"/>
     </row>
     <row r="16" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="64"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
     </row>
     <row r="17" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="64"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="64"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
     </row>
     <row r="19" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="64"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
     </row>
     <row r="20" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="58"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B14:E14"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2061,17 +2061,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="4"/>
@@ -2107,32 +2107,32 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
     </row>
     <row r="5" spans="1:9" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="85">
+      <c r="A5" s="87">
         <v>21</v>
       </c>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="94" t="s">
+      <c r="D5" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="94" t="s">
+      <c r="E5" s="96" t="s">
         <v>62</v>
       </c>
       <c r="F5" s="47">
@@ -2147,11 +2147,11 @@
       </c>
     </row>
     <row r="6" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="86"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
       <c r="F6" s="47">
         <v>2</v>
       </c>
@@ -2164,11 +2164,11 @@
       </c>
     </row>
     <row r="7" spans="1:9" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="98"/>
-      <c r="B7" s="97"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
       <c r="F7" s="47">
         <v>3</v>
       </c>
@@ -2181,19 +2181,19 @@
       </c>
     </row>
     <row r="8" spans="1:9" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="85">
+      <c r="A8" s="87">
         <v>21</v>
       </c>
-      <c r="B8" s="88" t="s">
+      <c r="B8" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="91" t="s">
+      <c r="C8" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="94" t="s">
+      <c r="D8" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="100" t="s">
+      <c r="E8" s="99" t="s">
         <v>71</v>
       </c>
       <c r="F8" s="47">
@@ -2208,11 +2208,11 @@
       </c>
     </row>
     <row r="9" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="86"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="101"/>
+      <c r="A9" s="88"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="100"/>
       <c r="F9" s="47">
         <v>2</v>
       </c>
@@ -2225,11 +2225,11 @@
       </c>
     </row>
     <row r="10" spans="1:9" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="98"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="102"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="101"/>
       <c r="F10" s="42">
         <v>3</v>
       </c>
@@ -2242,19 +2242,19 @@
       </c>
     </row>
     <row r="11" spans="1:9" s="46" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="85">
+      <c r="A11" s="87">
         <v>21</v>
       </c>
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="94" t="s">
+      <c r="D11" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="94" t="s">
+      <c r="E11" s="96" t="s">
         <v>71</v>
       </c>
       <c r="F11" s="47">
@@ -2269,11 +2269,11 @@
       </c>
     </row>
     <row r="12" spans="1:9" s="40" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="86"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
+      <c r="A12" s="88"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
       <c r="F12" s="42">
         <v>2</v>
       </c>
@@ -2286,11 +2286,11 @@
       </c>
     </row>
     <row r="13" spans="1:9" s="46" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="86"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
+      <c r="A13" s="88"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
       <c r="F13" s="41">
         <v>3</v>
       </c>
@@ -2303,11 +2303,11 @@
       </c>
     </row>
     <row r="14" spans="1:9" s="46" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="87"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
+      <c r="A14" s="102"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
       <c r="F14" s="41">
         <v>4</v>
       </c>
@@ -2321,6 +2321,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A8:A10"/>
@@ -2333,11 +2338,6 @@
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="E5:E7"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
